--- a/static/media/regiones_comunas_mercados.xlsx
+++ b/static/media/regiones_comunas_mercados.xlsx
@@ -1,21 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bacchus\Desktop\practica\canelo\canelo_project\static\media\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCCC5AC0-6354-40BF-847E-E3B2EEC74A59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
   <sheets>
-    <sheet name="regiones" sheetId="1" r:id="rId1"/>
+    <sheet state="visible" name="regiones" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr/>
 </workbook>
 </file>
 
@@ -89,6 +80,9 @@
 Río Hurtado
 Salamanca
 Vicuña</t>
+  </si>
+  <si>
+    <t>Región de Valparaíso</t>
   </si>
   <si>
     <t>Algarrobo
@@ -506,41 +500,30 @@
 Timaukel
 Torres del Paine</t>
   </si>
-  <si>
-    <t>Región de Valparaíso</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <fonts count="4">
     <font>
-      <sz val="10"/>
+      <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="&quot;Arial&quot;"/>
     </font>
     <font>
-      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -548,7 +531,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="lightGray"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -558,44 +541,38 @@
     </fill>
   </fills>
   <borders count="1">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+  <cellXfs count="4">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -785,28 +762,23 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col min="2" max="2" width="28.6640625" customWidth="1"/>
+    <col customWidth="1" min="2" max="2" width="25.13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -814,7 +786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -822,7 +794,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -830,7 +802,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -838,7 +810,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -846,144 +818,143 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6">
       <c r="A6" s="1" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="4" t="s">
         <v>12</v>
       </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="B7" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10">
       <c r="A10" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12">
       <c r="A12" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>